--- a/LCIA.xlsx
+++ b/LCIA.xlsx
@@ -8,23 +8,39 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jcnouwens/Git/ROOT/ROOT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC219EE5-FA78-C04A-B9E6-70121638DA82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D336DDB9-2BDA-7F4D-AD15-2E4860AB5529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Read me " sheetId="3" r:id="rId1"/>
     <sheet name="LCIA" sheetId="1" r:id="rId2"/>
+    <sheet name="BOM" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">LCIA!$A$4:$AAN$4</definedName>
+    <definedName name="BOM" localSheetId="2">BOM!$A$1:$C$4</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{4D3F5544-CE4D-4D4F-A6CF-A98292630CAC}" name="BOM" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/jcnouwens/Git/ROOT/ROOT/BOM.csv" tab="0" comma="1">
+      <textFields count="3">
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2960" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2972" uniqueCount="597">
   <si>
     <t>Activity UUID_Product UUID</t>
   </si>
@@ -1788,6 +1804,33 @@
   </si>
   <si>
     <t>3.9.1, December 2022</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Quantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Seat</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PP (polypropyleen)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Screws</t>
+  </si>
+  <si>
+    <t>Stainless steel</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Items</t>
   </si>
 </sst>
 </file>
@@ -2134,6 +2177,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="BOM" connectionId="1" xr16:uid="{3CF26198-C47B-AC41-B194-8B9AA7983980}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2659,7 +2706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AAN20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -22930,4 +22977,94 @@
   <autoFilter ref="A4:AAN4" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08F89453-40E1-1843-BAD3-95C0D66A56CB}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B1" t="s">
+        <v>589</v>
+      </c>
+      <c r="C1" t="s">
+        <v>590</v>
+      </c>
+      <c r="D1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>591</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>592</v>
+      </c>
+      <c r="C3">
+        <v>2.4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>593</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>594</v>
+      </c>
+      <c r="C5">
+        <v>0.1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/LCIA.xlsx
+++ b/LCIA.xlsx
@@ -8,39 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jcnouwens/Git/ROOT/ROOT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D336DDB9-2BDA-7F4D-AD15-2E4860AB5529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E58E8EB-C32E-7E45-866E-18284261E601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Read me " sheetId="3" r:id="rId1"/>
     <sheet name="LCIA" sheetId="1" r:id="rId2"/>
-    <sheet name="BOM" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">LCIA!$A$4:$AAN$4</definedName>
-    <definedName name="BOM" localSheetId="2">BOM!$A$1:$C$4</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
-<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{4D3F5544-CE4D-4D4F-A6CF-A98292630CAC}" name="BOM" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/jcnouwens/Git/ROOT/ROOT/BOM.csv" tab="0" comma="1">
-      <textFields count="3">
-        <textField/>
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-</connections>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2972" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2960" uniqueCount="588">
   <si>
     <t>Activity UUID_Product UUID</t>
   </si>
@@ -1804,33 +1788,6 @@
   </si>
   <si>
     <t>3.9.1, December 2022</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Quantity</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Seat</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PP (polypropyleen)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Screws</t>
-  </si>
-  <si>
-    <t>Stainless steel</t>
-  </si>
-  <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>Items</t>
   </si>
 </sst>
 </file>
@@ -2177,10 +2134,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="BOM" connectionId="1" xr16:uid="{3CF26198-C47B-AC41-B194-8B9AA7983980}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2706,7 +2659,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AAN20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -22977,94 +22930,4 @@
   <autoFilter ref="A4:AAN4" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08F89453-40E1-1843-BAD3-95C0D66A56CB}">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>588</v>
-      </c>
-      <c r="B1" t="s">
-        <v>589</v>
-      </c>
-      <c r="C1" t="s">
-        <v>590</v>
-      </c>
-      <c r="D1" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>591</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>592</v>
-      </c>
-      <c r="C3">
-        <v>2.4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>593</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>594</v>
-      </c>
-      <c r="C5">
-        <v>0.1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>